--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/INVENTARIO ALMACEN ENE-22.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/INVENTARIO ALMACEN ENE-22.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -208,6 +208,61 @@
   </si>
   <si>
     <t>COMBOS</t>
+  </si>
+  <si>
+    <t>CORBATA</t>
+  </si>
+  <si>
+    <t>1.-</t>
+  </si>
+  <si>
+    <t>2.-</t>
+  </si>
+  <si>
+    <t>3.-</t>
+  </si>
+  <si>
+    <t>4.-</t>
+  </si>
+  <si>
+    <t>5.-</t>
+  </si>
+  <si>
+    <t>ESTO ES FALTANTE DE UNA CAJA CONTRA LO FISICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SALEN LOS REGISTROS COMO CAJAS QUE SALIERON DE MAS SEGÚN LAS SALIDAS DE ALMACEN</t>
+  </si>
+  <si>
+    <t>6.-</t>
+  </si>
+  <si>
+    <t>EN KILOS EN FISICO SOBRAN   CONTRA LO RECIBIDO</t>
+  </si>
+  <si>
+    <t>SALEN  CAJAS EN NEGATIVO EN REGISTROS  CON   LAS SALIDAS DE ALMACEN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EN REGITROS DE ALMACEN SOBRA POR UN REGISTRO QUE HIZO DE   DIFERENCIA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ????</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">N O T A S  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETY NO REPORTA EN CARDEX </t>
   </si>
 </sst>
 </file>
@@ -218,7 +273,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,14 +487,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <u/>
       <sz val="11"/>
@@ -469,8 +516,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF660033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,8 +605,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -591,19 +689,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1200,7 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1215,10 +1300,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1231,34 +1312,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1267,31 +1348,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1305,106 +1380,99 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1412,126 +1480,118 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1545,120 +1605,172 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1668,6 +1780,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF660033"/>
+      <color rgb="FF66FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1945,17 +2064,17 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:X40"/>
+  <dimension ref="B1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="138" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="127" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="1.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
@@ -1964,18 +2083,18 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="1.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="149" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="145"/>
-    <col min="14" max="14" width="10" style="138" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="138" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="134"/>
+    <col min="14" max="14" width="10" style="127" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="0" style="12" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0" style="10" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="175"/>
+      <c r="B1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="183"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1987,1184 +2106,1488 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="176">
+      <c r="B2" s="184">
         <v>44591</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="F2" s="178" t="s">
+      <c r="C2" s="185"/>
+      <c r="F2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="C3" s="179" t="s">
+      <c r="K2" s="201" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="201"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="181" t="s">
+      <c r="D3" s="188"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="182"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="183" t="s">
+      <c r="G3" s="190"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="163" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="164"/>
-      <c r="M3" s="165" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="166"/>
-      <c r="O3" s="167" t="s">
+      <c r="N3" s="194"/>
+      <c r="O3" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="168"/>
+      <c r="P3" s="196"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="184"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="20" t="s">
+      <c r="I4" s="192"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31">
+      <c r="C5" s="25">
+        <v>217.48</v>
+      </c>
+      <c r="D5" s="26">
+        <v>17</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29">
         <f t="shared" ref="H5:I27" si="0">F5+C5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36">
+        <v>217.48</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="51">
+        <v>217.48</v>
+      </c>
+      <c r="L5" s="52">
+        <v>17</v>
+      </c>
+      <c r="M5" s="32">
         <f>K5-H5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="33">
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="169"/>
-      <c r="P5" s="170"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="198"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="38">
-        <f>F6+E7</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="39">
+      <c r="C6" s="146">
+        <v>1.2</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="51">
+        <v>1.2</v>
+      </c>
+      <c r="L6" s="52">
+        <v>0</v>
+      </c>
+      <c r="M6" s="35">
         <f t="shared" ref="M6:N22" si="1">K6-H6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="171"/>
-      <c r="P6" s="172"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="45"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="200"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="41"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="2:24" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="46">
+      <c r="C7" s="25">
+        <v>100</v>
+      </c>
+      <c r="D7" s="26">
+        <v>5</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="51">
+        <v>100</v>
+      </c>
+      <c r="L7" s="52">
+        <v>5</v>
+      </c>
+      <c r="M7" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="48"/>
+      <c r="O7" s="44"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:24" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+    <row r="8" spans="2:24" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="46">
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="25">
+        <v>952.48</v>
+      </c>
+      <c r="G8" s="28">
+        <v>51</v>
+      </c>
+      <c r="H8" s="34">
+        <f t="shared" si="0"/>
+        <v>952.48</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="51">
+        <v>952.48</v>
+      </c>
+      <c r="L8" s="52">
+        <v>51</v>
+      </c>
+      <c r="M8" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="173"/>
-      <c r="P8" s="174"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="182"/>
     </row>
     <row r="9" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="46">
+      <c r="C9" s="25">
+        <v>486.37</v>
+      </c>
+      <c r="D9" s="26">
+        <v>21</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="34">
+        <f t="shared" si="0"/>
+        <v>486.37</v>
+      </c>
+      <c r="I9" s="47">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="51">
+        <v>486.36</v>
+      </c>
+      <c r="L9" s="52">
+        <v>21</v>
+      </c>
+      <c r="M9" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="47">
+        <v>-9.9999999999909051E-3</v>
+      </c>
+      <c r="N9" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50"/>
     </row>
     <row r="10" spans="2:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="46">
+      <c r="C10" s="25">
+        <v>10</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="25">
+        <v>200</v>
+      </c>
+      <c r="G10" s="28">
+        <v>20</v>
+      </c>
+      <c r="H10" s="34">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I10" s="47">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="51">
+        <v>210</v>
+      </c>
+      <c r="L10" s="52">
+        <v>21</v>
+      </c>
+      <c r="M10" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="151"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="46">
+      <c r="C11" s="25">
+        <v>170</v>
+      </c>
+      <c r="D11" s="26">
+        <v>17</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="34">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="I11" s="47">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="51">
+        <v>170</v>
+      </c>
+      <c r="L11" s="52">
+        <v>17</v>
+      </c>
+      <c r="M11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
     </row>
     <row r="12" spans="2:24" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="46">
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="62"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-    </row>
-    <row r="13" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="26" t="s">
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+    </row>
+    <row r="13" spans="2:24" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="46">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N13" s="47">
+      <c r="N13" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
     </row>
     <row r="14" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="46">
+      <c r="C14" s="25">
+        <v>149.05000000000001</v>
+      </c>
+      <c r="D14" s="143">
+        <v>-38</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="63">
+        <f t="shared" si="0"/>
+        <v>149.05000000000001</v>
+      </c>
+      <c r="I14" s="47">
+        <f t="shared" si="0"/>
+        <v>-38</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="51">
+        <v>135.66999999999999</v>
+      </c>
+      <c r="L14" s="52">
+        <v>4</v>
+      </c>
+      <c r="M14" s="150">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="47">
+        <v>-13.380000000000024</v>
+      </c>
+      <c r="N14" s="151">
+        <f>L14+I14</f>
+        <v>-34</v>
+      </c>
+      <c r="O14" s="175"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="166" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="53"/>
+    </row>
+    <row r="15" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="145" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="121"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="121">
+        <v>194.3</v>
+      </c>
+      <c r="G15" s="28">
+        <v>12</v>
+      </c>
+      <c r="H15" s="63">
+        <f t="shared" si="0"/>
+        <v>194.3</v>
+      </c>
+      <c r="I15" s="47">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="51">
+        <v>194.3</v>
+      </c>
+      <c r="L15" s="52">
+        <v>12</v>
+      </c>
+      <c r="M15" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="153"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="57"/>
-    </row>
-    <row r="15" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="26" t="s">
+      <c r="N15" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="65"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+    </row>
+    <row r="16" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="46">
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="25">
+        <v>113.66</v>
+      </c>
+      <c r="G16" s="28">
+        <v>4</v>
+      </c>
+      <c r="H16" s="63">
+        <f t="shared" si="0"/>
+        <v>113.66</v>
+      </c>
+      <c r="I16" s="47">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="51">
+        <v>113.66</v>
+      </c>
+      <c r="L16" s="52">
+        <v>4</v>
+      </c>
+      <c r="M16" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="47">
+      <c r="N16" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-    </row>
-    <row r="16" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="26" t="s">
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+    </row>
+    <row r="17" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="69"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+    </row>
+    <row r="18" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="46">
+      <c r="C18" s="25">
+        <v>694.78</v>
+      </c>
+      <c r="D18" s="26">
+        <v>35</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="63">
+        <f t="shared" si="0"/>
+        <v>694.78</v>
+      </c>
+      <c r="I18" s="47">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="51">
+        <v>702.84</v>
+      </c>
+      <c r="L18" s="52">
+        <v>35</v>
+      </c>
+      <c r="M18" s="147">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="47">
+        <v>8.0600000000000591</v>
+      </c>
+      <c r="N18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="72"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-    </row>
-    <row r="17" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="46">
+      <c r="O18" s="71"/>
+      <c r="P18" s="167"/>
+      <c r="Q18" s="166" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+    </row>
+    <row r="19" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="25">
+        <v>208.84</v>
+      </c>
+      <c r="D19" s="26">
+        <v>46</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25">
+        <v>1502.74</v>
+      </c>
+      <c r="G19" s="28">
+        <v>331</v>
+      </c>
+      <c r="H19" s="63">
+        <f t="shared" si="0"/>
+        <v>1711.58</v>
+      </c>
+      <c r="I19" s="47">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="51">
+        <v>1707.04</v>
+      </c>
+      <c r="L19" s="52">
+        <v>376</v>
+      </c>
+      <c r="M19" s="148">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="47">
+        <v>-4.5399999999999636</v>
+      </c>
+      <c r="N19" s="149">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="74"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-    </row>
-    <row r="18" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="46">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="176"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="166" t="s">
+        <v>52</v>
+      </c>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+    </row>
+    <row r="20" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25">
+        <v>7957.51</v>
+      </c>
+      <c r="G20" s="28">
+        <v>332</v>
+      </c>
+      <c r="H20" s="63">
+        <f t="shared" si="0"/>
+        <v>7957.51</v>
+      </c>
+      <c r="I20" s="47">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="51">
+        <v>7957.51</v>
+      </c>
+      <c r="L20" s="52">
+        <v>332</v>
+      </c>
+      <c r="M20" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="47">
+      <c r="N20" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="76"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-    </row>
-    <row r="19" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="46">
+      <c r="O20" s="73"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="53"/>
+    </row>
+    <row r="21" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="25">
+        <v>3052.65</v>
+      </c>
+      <c r="D21" s="26">
+        <v>105</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="63">
+        <f t="shared" si="0"/>
+        <v>3052.65</v>
+      </c>
+      <c r="I21" s="47">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="51">
+        <v>3036.24</v>
+      </c>
+      <c r="L21" s="52">
+        <v>104</v>
+      </c>
+      <c r="M21" s="150">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="47">
+        <v>-16.410000000000309</v>
+      </c>
+      <c r="N21" s="151">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="155"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-    </row>
-    <row r="20" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="46">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="166" t="s">
+        <v>53</v>
+      </c>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="53"/>
+    </row>
+    <row r="22" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1443</v>
+      </c>
+      <c r="D22" s="26">
+        <v>111</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="63">
+        <f t="shared" si="0"/>
+        <v>1443</v>
+      </c>
+      <c r="I22" s="47">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="51">
+        <v>1443</v>
+      </c>
+      <c r="L22" s="52">
+        <v>111</v>
+      </c>
+      <c r="M22" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N22" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="80"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="57"/>
-    </row>
-    <row r="21" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="157"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="57"/>
-    </row>
-    <row r="22" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="26" t="s">
+      <c r="O22" s="178"/>
+      <c r="P22" s="179"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+    </row>
+    <row r="23" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="42">
+        <f t="shared" ref="M23:N36" si="2">K23-H23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="79"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="155"/>
+    </row>
+    <row r="24" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="81"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="155"/>
+    </row>
+    <row r="25" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="159"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-    </row>
-    <row r="23" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="46">
-        <f t="shared" ref="M23:N36" si="2">K23-H23</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="47">
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25">
+        <v>1687.64</v>
+      </c>
+      <c r="G25" s="28">
+        <v>62</v>
+      </c>
+      <c r="H25" s="63">
+        <f t="shared" si="0"/>
+        <v>1687.64</v>
+      </c>
+      <c r="I25" s="47">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="J25" s="31"/>
+      <c r="K25" s="83">
+        <v>1714.86</v>
+      </c>
+      <c r="L25" s="52">
+        <v>63</v>
+      </c>
+      <c r="M25" s="42">
+        <f>K25-H25</f>
+        <v>27.2199999999998</v>
+      </c>
+      <c r="N25" s="43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="86"/>
-      <c r="P23" s="87"/>
-    </row>
-    <row r="24" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="46">
+        <v>1</v>
+      </c>
+      <c r="O25" s="180"/>
+      <c r="P25" s="180"/>
+      <c r="Q25" s="166" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="47">
+      <c r="N26" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="88"/>
-      <c r="P24" s="89"/>
-    </row>
-    <row r="25" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="26" t="s">
+      <c r="O26" s="89"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="155"/>
+    </row>
+    <row r="27" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="91"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="155"/>
+    </row>
+    <row r="28" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="86">
+        <v>16314.9</v>
+      </c>
+      <c r="G28" s="87">
+        <v>18</v>
+      </c>
+      <c r="H28" s="60">
+        <f t="shared" ref="H28:I36" si="3">F28+C28</f>
+        <v>16314.9</v>
+      </c>
+      <c r="I28" s="88">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="83">
+        <v>16314.9</v>
+      </c>
+      <c r="L28" s="52">
+        <v>18</v>
+      </c>
+      <c r="M28" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="91"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="169" t="s">
+        <v>62</v>
+      </c>
+      <c r="R28" s="170"/>
+      <c r="S28" s="170"/>
+    </row>
+    <row r="29" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="93"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="155"/>
+    </row>
+    <row r="30" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="46">
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="31"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25" s="47">
+      <c r="N30" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="161"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="79"/>
-    </row>
-    <row r="26" spans="2:20" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="95">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="46">
+      <c r="O30" s="102"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="53"/>
+    </row>
+    <row r="31" spans="2:20" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="31"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="47">
+      <c r="N31" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="96"/>
-      <c r="P26" s="97"/>
-    </row>
-    <row r="27" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="95">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="46">
+      <c r="O31" s="107"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="155"/>
+    </row>
+    <row r="32" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="25">
+        <v>22.7</v>
+      </c>
+      <c r="D32" s="26">
+        <v>5</v>
+      </c>
+      <c r="E32" s="105"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="100">
+        <f t="shared" si="3"/>
+        <v>22.7</v>
+      </c>
+      <c r="I32" s="101">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J32" s="31"/>
+      <c r="K32" s="83">
+        <v>22.7</v>
+      </c>
+      <c r="L32" s="52">
+        <v>5</v>
+      </c>
+      <c r="M32" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="47">
+      <c r="N32" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O27" s="98"/>
-      <c r="P27" s="99"/>
-    </row>
-    <row r="28" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="64">
-        <f t="shared" ref="H28:I36" si="3">F28+C28</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="95">
+      <c r="O32" s="110"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="157"/>
+    </row>
+    <row r="33" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="96">
+        <v>270</v>
+      </c>
+      <c r="G33" s="106">
+        <v>18</v>
+      </c>
+      <c r="H33" s="100">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="46">
+        <v>270</v>
+      </c>
+      <c r="I33" s="101">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="J33" s="31"/>
+      <c r="K33" s="83">
+        <v>270</v>
+      </c>
+      <c r="L33" s="52">
+        <v>18</v>
+      </c>
+      <c r="M33" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="47">
+      <c r="N33" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O28" s="98"/>
-      <c r="P28" s="99"/>
-    </row>
-    <row r="29" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="64">
+      <c r="O33" s="114"/>
+      <c r="P33" s="115"/>
+    </row>
+    <row r="34" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118">
+        <v>0</v>
+      </c>
+      <c r="D34" s="143">
+        <v>-2</v>
+      </c>
+      <c r="E34" s="113"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I29" s="95">
+      <c r="I34" s="101">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="46">
+        <v>-2</v>
+      </c>
+      <c r="J34" s="31"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="47">
+      <c r="N34" s="151">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="100"/>
-      <c r="P29" s="101"/>
-    </row>
-    <row r="30" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="107">
+        <v>2</v>
+      </c>
+      <c r="O34" s="116"/>
+      <c r="P34" s="168"/>
+      <c r="Q34" s="166" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="118"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="108">
+      <c r="I35" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="46">
+      <c r="J35" s="31"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="47">
+      <c r="N35" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O30" s="109"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="57"/>
-    </row>
-    <row r="31" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="107">
+      <c r="O35" s="107"/>
+      <c r="P35" s="108"/>
+    </row>
+    <row r="36" spans="2:17" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I31" s="108">
+      <c r="I36" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="46">
+      <c r="J36" s="31"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="47">
+      <c r="N36" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O31" s="114"/>
-      <c r="P31" s="115"/>
-    </row>
-    <row r="32" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="117"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="119"/>
-    </row>
-    <row r="33" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="120" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="122"/>
-      <c r="P33" s="123"/>
-    </row>
-    <row r="34" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="124"/>
-      <c r="P34" s="125"/>
-      <c r="Q34" s="119"/>
-    </row>
-    <row r="35" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="127"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="114"/>
-      <c r="P35" s="115"/>
-    </row>
-    <row r="36" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="130"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="135"/>
-      <c r="P36" s="136"/>
+      <c r="O36" s="124"/>
+      <c r="P36" s="125"/>
     </row>
     <row r="37" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="137"/>
-      <c r="D37" s="139"/>
-      <c r="F37" s="150" t="s">
+      <c r="B37" s="126"/>
+      <c r="D37" s="128"/>
+      <c r="F37" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="150"/>
-      <c r="H37" s="140">
+      <c r="G37" s="172"/>
+      <c r="H37" s="129">
         <f>SUM(H5:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="141">
+        <v>35456.6</v>
+      </c>
+      <c r="I37" s="130">
         <f>SUM(I5:I30)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="142"/>
-      <c r="K37" s="143">
+        <v>1150</v>
+      </c>
+      <c r="J37" s="131"/>
+      <c r="K37" s="132">
         <f>SUM(K5:K35)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="144">
+        <v>35750.239999999998</v>
+      </c>
+      <c r="L37" s="133">
         <f>SUM(L5:L35)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="146"/>
+        <v>1214</v>
+      </c>
+      <c r="O37" s="135"/>
     </row>
     <row r="39" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="147"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="147"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="1"/>
+    <row r="40" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="171" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="158" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="159" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="161"/>
+      <c r="M40" s="162"/>
+      <c r="N40" s="163"/>
+    </row>
+    <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="171"/>
+      <c r="C41" s="158" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="159" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="161"/>
+      <c r="M41" s="162"/>
+      <c r="N41" s="163"/>
+    </row>
+    <row r="42" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="171"/>
+      <c r="C42" s="158" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="164" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="161"/>
+      <c r="M42" s="162"/>
+      <c r="N42" s="163"/>
+    </row>
+    <row r="43" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="171"/>
+      <c r="C43" s="158" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="164" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="161"/>
+      <c r="M43" s="162"/>
+      <c r="N43" s="163"/>
+    </row>
+    <row r="44" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="171"/>
+      <c r="C44" s="158" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="117" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="161"/>
+      <c r="M44" s="162"/>
+      <c r="N44" s="163"/>
+    </row>
+    <row r="45" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B45" s="171"/>
+      <c r="C45" s="158" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="165" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="161"/>
+      <c r="M45" s="162"/>
+      <c r="N45" s="163"/>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="152"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <sortState ref="B7:G36">
+    <sortCondition ref="B7:B36"/>
+  </sortState>
+  <mergeCells count="20">
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -3172,11 +3595,12 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B40:B45"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O14:P14"/>
@@ -3201,197 +3625,197 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" style="185" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="139" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="188">
+      <c r="A5" s="141">
         <v>44565</v>
       </c>
-      <c r="B5" s="187">
+      <c r="B5" s="140">
         <v>19318.5</v>
       </c>
-      <c r="C5" s="189">
+      <c r="C5" s="142">
         <v>20</v>
       </c>
-      <c r="D5" s="187"/>
+      <c r="D5" s="140"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="187"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="187"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="140"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="187"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="187"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="140"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="187"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="140"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="187"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="187"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="140"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="187"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="187"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="140"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="187"/>
-      <c r="B11" s="187"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="187"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="140"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="187"/>
-      <c r="B12" s="187"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="187"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="140"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="187"/>
-      <c r="B13" s="187"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="187"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="140"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="187"/>
-      <c r="B14" s="187"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="187"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="140"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="187"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="140"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="187"/>
-      <c r="B16" s="187"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="187"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="140"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="187"/>
-      <c r="B17" s="187"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="187"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="140"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="187"/>
-      <c r="B18" s="187"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="187"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="140"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="187"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="187"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="140"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="187"/>
-      <c r="B20" s="187"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="187"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="140"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="187"/>
-      <c r="B21" s="187"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="187"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="140"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="187"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="187"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="140"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="187"/>
-      <c r="B23" s="187"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="187"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="140"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="187"/>
-      <c r="B24" s="187"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="187"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="140"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="187"/>
-      <c r="B25" s="187"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="187"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="140"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="187"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="187"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="140"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="187"/>
-      <c r="B27" s="187"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="187"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="140"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="187"/>
-      <c r="B28" s="187"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="187"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="140"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="187"/>
-      <c r="B29" s="187"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="187"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="140"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="187"/>
-      <c r="B30" s="187"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="187"/>
+      <c r="A30" s="140"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="140"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="187"/>
-      <c r="B31" s="187"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="187"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="1">
